--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="119">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>SWIFT Bank Operation Code Types,setproperty,innertext</t>
+  </si>
+  <si>
+    <t>Field_Name1</t>
+  </si>
+  <si>
+    <t>Field_Name2</t>
+  </si>
+  <si>
+    <t>Field_Name3</t>
+  </si>
+  <si>
+    <t>Field_Name4</t>
+  </si>
+  <si>
+    <t>Field_Name5</t>
+  </si>
+  <si>
+    <t>Field_Name6</t>
+  </si>
+  <si>
+    <t>jTPS</t>
+  </si>
+  <si>
+    <t>pJTPS</t>
   </si>
 </sst>
 </file>
@@ -530,7 +554,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -571,7 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,13 +955,16 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="19"/>
+    <col min="14" max="14" width="5.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,32 +993,50 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1021,25 +1062,31 @@
       <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1065,19 +1112,29 @@
       <c r="I3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="15" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
@@ -1097,19 +1154,29 @@
       <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="1">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
@@ -1129,19 +1196,29 @@
       <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
@@ -1161,19 +1238,29 @@
       <c r="I6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="15"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="1">
-        <v>3</v>
-      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -1193,21 +1280,31 @@
       <c r="I7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1227,21 +1324,31 @@
       <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1267,23 +1374,33 @@
       <c r="I9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1305,19 +1422,29 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="19" t="s">
+      <c r="L10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1337,21 +1464,31 @@
       <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="14" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="P11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1371,19 +1508,29 @@
       <c r="I12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="1">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="R12" s="22"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -1403,27 +1550,37 @@
       <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="M13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1439,23 +1596,33 @@
       <c r="I14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="14" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="P14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1475,27 +1642,37 @@
       <c r="I15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="P15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1511,64 +1688,84 @@
       <c r="I16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="14" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="P16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="27"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="P17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1584,27 +1781,37 @@
       <c r="I18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="14" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="P18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="27"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1620,27 +1827,37 @@
       <c r="I19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="14" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1656,27 +1873,37 @@
       <c r="I20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="14" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1692,27 +1919,37 @@
       <c r="I21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="14" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1728,27 +1965,37 @@
       <c r="I22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="14" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="28"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="27"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1764,23 +2011,33 @@
       <c r="I23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="1">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="28"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="27"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1796,129 +2053,169 @@
       <c r="I24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="P24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="R24" s="28"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="27"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="33" t="s">
+      <c r="G25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="P25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" s="28"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="30" t="s">
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="27"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="G26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="P26" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28" t="s">
+      <c r="G27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="34"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1934,27 +2231,37 @@
       <c r="I28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="14" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="28"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="27"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1970,27 +2277,37 @@
       <c r="I29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="14" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="R29" s="28"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="27"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2006,27 +2323,37 @@
       <c r="I30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="14" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="R30" s="28"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="27"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2042,27 +2369,37 @@
       <c r="I31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="14" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="P31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" s="28"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="27"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2078,27 +2415,37 @@
       <c r="I32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="14" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R32" s="28"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="27"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2114,27 +2461,37 @@
       <c r="I33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="14" t="s">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="R33" s="28"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="27"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
@@ -2150,27 +2507,37 @@
       <c r="I34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="14" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="P34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R34" s="28"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="27"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="5" t="s">
         <v>19</v>
       </c>
@@ -2186,27 +2553,37 @@
       <c r="I35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="P35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R35" s="28"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="27"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="5" t="s">
         <v>19</v>
       </c>
@@ -2222,23 +2599,33 @@
       <c r="I36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="M36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="P36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R36" s="28"/>
-    </row>
-    <row r="37" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="27"/>
+    </row>
+    <row r="37" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2635,7 @@
       <c r="C37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="5" t="s">
         <v>19</v>
       </c>
@@ -2264,27 +2651,37 @@
       <c r="I37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="14" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="P37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R37" s="28"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="27"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
         <v>19</v>
       </c>
@@ -2300,27 +2697,37 @@
       <c r="I38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="14" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="P38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="11"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>19</v>
       </c>
@@ -2336,27 +2743,37 @@
       <c r="I39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="14" t="s">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="P39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="5" t="s">
         <v>19</v>
       </c>
@@ -2372,27 +2789,37 @@
       <c r="I40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="14" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="P40" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="5" t="s">
         <v>19</v>
       </c>
@@ -2408,27 +2835,37 @@
       <c r="I41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="14" t="s">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="P41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="5" t="s">
         <v>19</v>
       </c>
@@ -2444,27 +2881,37 @@
       <c r="I42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="14" t="s">
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="P42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="5" t="s">
         <v>19</v>
       </c>
@@ -2480,27 +2927,37 @@
       <c r="I43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="14" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="P43" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="5" t="s">
         <v>19</v>
       </c>
@@ -2516,27 +2973,37 @@
       <c r="I44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="14" t="s">
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O44" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="P44" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="5" t="s">
         <v>19</v>
       </c>
@@ -2552,27 +3019,37 @@
       <c r="I45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="M45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="P45" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="5" t="s">
         <v>19</v>
       </c>
@@ -2588,27 +3065,37 @@
       <c r="I46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="10"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="M46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="16" t="s">
+      <c r="P46" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
@@ -2624,27 +3111,37 @@
       <c r="I47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="M47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N47" s="16" t="s">
+      <c r="P47" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="5" t="s">
         <v>19</v>
       </c>
@@ -2660,27 +3157,37 @@
       <c r="I48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="14" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="P48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="5" t="s">
         <v>19</v>
       </c>
@@ -2696,27 +3203,37 @@
       <c r="I49" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="14" t="s">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="P49" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="5" t="s">
         <v>19</v>
       </c>
@@ -2732,27 +3249,37 @@
       <c r="I50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="14" t="s">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="P50" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="5" t="s">
         <v>19</v>
       </c>
@@ -2768,27 +3295,37 @@
       <c r="I51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="14" t="s">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="P51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="5" t="s">
         <v>19</v>
       </c>
@@ -2804,27 +3341,37 @@
       <c r="I52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="14" t="s">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="P52" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="5" t="s">
         <v>19</v>
       </c>
@@ -2840,27 +3387,37 @@
       <c r="I53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="14" t="s">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="P53" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="5" t="s">
         <v>19</v>
       </c>
@@ -2876,27 +3433,37 @@
       <c r="I54" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="M54" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="P54" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="24"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="5" t="s">
         <v>19</v>
       </c>
@@ -2912,27 +3479,37 @@
       <c r="I55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="10"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M55" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N55" s="16" t="s">
+      <c r="P55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="5" t="s">
         <v>19</v>
       </c>
@@ -2948,27 +3525,37 @@
       <c r="I56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="10"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="M56" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O56" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N56" s="16" t="s">
+      <c r="P56" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="5" t="s">
         <v>19</v>
       </c>
@@ -2984,27 +3571,37 @@
       <c r="I57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="14" t="s">
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N57" s="15" t="s">
+      <c r="P57" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R57" s="11"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="11"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="5" t="s">
         <v>19</v>
       </c>
@@ -3020,27 +3617,37 @@
       <c r="I58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="14" t="s">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N58" s="15" t="s">
+      <c r="P58" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="5" t="s">
         <v>19</v>
       </c>
@@ -3056,25 +3663,35 @@
       <c r="I59" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="20"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="N59" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="5" t="s">
         <v>19</v>
       </c>
@@ -3090,27 +3707,37 @@
       <c r="I60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="10"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="M60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="P60" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="5" t="s">
         <v>19</v>
       </c>
@@ -3126,25 +3753,35 @@
       <c r="I61" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="14" t="s">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" s="11"/>
+      <c r="P61" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="5" t="s">
         <v>19</v>
       </c>
@@ -3160,27 +3797,37 @@
       <c r="I62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="14" t="s">
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N62" s="15" t="s">
+      <c r="P62" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R62" s="11"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="5" t="s">
         <v>19</v>
       </c>
@@ -3196,27 +3843,37 @@
       <c r="I63" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="M63" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O63" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N63" s="15" t="s">
+      <c r="P63" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="11"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="5" t="s">
         <v>19</v>
       </c>
@@ -3232,25 +3889,35 @@
       <c r="I64" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="14" t="s">
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O64" s="11"/>
+      <c r="P64" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="11"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="5" t="s">
         <v>19</v>
       </c>
@@ -3266,27 +3933,37 @@
       <c r="I65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="10"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O65" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N65" s="16" t="s">
+      <c r="P65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="11"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3302,27 +3979,37 @@
       <c r="I66" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="10"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="M66" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O66" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="16" t="s">
+      <c r="P66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="11"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="5" t="s">
         <v>19</v>
       </c>
@@ -3338,27 +4025,37 @@
       <c r="I67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="14" t="s">
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O67" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N67" s="15" t="s">
+      <c r="P67" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="11"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="5" t="s">
         <v>19</v>
       </c>
@@ -3374,27 +4071,37 @@
       <c r="I68" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="14" t="s">
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O68" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N68" s="15" t="s">
+      <c r="P68" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R68" s="28"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="27"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="5" t="s">
         <v>19</v>
       </c>
@@ -3410,27 +4117,37 @@
       <c r="I69" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="M69" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O69" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N69" s="15" t="s">
+      <c r="P69" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R69" s="28"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="27"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="5" t="s">
         <v>19</v>
       </c>
@@ -3446,27 +4163,37 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M70" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="16" t="s">
+      <c r="P70" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R70" s="28"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="27"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="5" t="s">
         <v>19</v>
       </c>
@@ -3482,27 +4209,37 @@
       <c r="I71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="10"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="M71" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="P71" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R71" s="28"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="27"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="5" t="s">
         <v>19</v>
       </c>
@@ -3518,23 +4255,33 @@
       <c r="I72" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="14" t="s">
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N72" s="15" t="s">
+      <c r="P72" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="R72" s="28"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="27"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>19</v>
       </c>
@@ -3544,7 +4291,7 @@
       <c r="C73" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="24"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="5" t="s">
         <v>19</v>
       </c>
@@ -3560,27 +4307,37 @@
       <c r="I73" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="14" t="s">
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N73" s="15" t="s">
+      <c r="P73" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R73" s="28"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="27"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="5" t="s">
         <v>19</v>
       </c>
@@ -3596,27 +4353,37 @@
       <c r="I74" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="14" t="s">
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O74" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="P74" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R74" s="28"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="27"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="5" t="s">
         <v>19</v>
       </c>
@@ -3632,26 +4399,36 @@
       <c r="I75" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="15" t="s">
+      <c r="K75" s="11"/>
+      <c r="L75" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O75" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="P75" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R75" s="28"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="27"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="5" t="s">
         <v>19</v>
       </c>
@@ -3667,27 +4444,37 @@
       <c r="I76" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="14" t="s">
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O76" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N76" s="15" t="s">
+      <c r="P76" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R76" s="28"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="27"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="5" t="s">
         <v>19</v>
       </c>
@@ -3703,43 +4490,59 @@
       <c r="I77" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="10"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="M77" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O77" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N77" s="15" t="s">
+      <c r="P77" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="7"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="10"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="26"/>
       <c r="M78" s="11"/>
-      <c r="N78" s="15"/>
+      <c r="N78" s="11"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="27"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="11"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>106</v>
       </c>
@@ -3767,29 +4570,409 @@
       <c r="I79" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="P79" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="L79" s="10" t="s">
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="W79" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="N79" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="11"/>
+      <c r="X79" s="11"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+    </row>
+    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+    </row>
+    <row r="115" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+    </row>
+    <row r="125" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+    </row>
+    <row r="130" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+    </row>
+    <row r="135" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+    </row>
+    <row r="139" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+    </row>
+    <row r="140" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+    </row>
+    <row r="141" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+    </row>
+    <row r="142" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+    </row>
+    <row r="143" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+    </row>
+    <row r="144" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+    </row>
+    <row r="148" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+    </row>
+    <row r="149" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+    </row>
+    <row r="150" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+    </row>
+    <row r="151" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+    </row>
+    <row r="152" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+    </row>
+    <row r="153" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+    </row>
+    <row r="154" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+    </row>
+    <row r="155" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+    </row>
+    <row r="156" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+    </row>
+    <row r="157" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+    </row>
+    <row r="158" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+    </row>
+    <row r="159" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+    </row>
+    <row r="160" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+    </row>
+    <row r="161" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+    </row>
+    <row r="162" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+    </row>
+    <row r="163" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+    </row>
+    <row r="164" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+    </row>
+    <row r="165" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+    </row>
+    <row r="166" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+    </row>
+    <row r="167" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+    </row>
+    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+    </row>
+    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+    </row>
+    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+    </row>
+    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+    </row>
+    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+    </row>
+    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -139,9 +139,6 @@
     <t>elm_RefinanceTypes</t>
   </si>
   <si>
-    <t>Asynchronous Task Types,setproperty,innertext</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>wnd_AsynchronousTaskTypes</t>
-  </si>
-  <si>
     <t>elm_close</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>txt_Value</t>
   </si>
   <si>
-    <t>Automati</t>
-  </si>
-  <si>
     <t>5.3.0.4</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>5.2.6</t>
   </si>
   <si>
-    <t>allrows,value^Automati,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.3.2</t>
   </si>
   <si>
@@ -298,12 +286,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>wnd_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -313,9 +295,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -328,9 +307,6 @@
     <t>DeleteRow</t>
   </si>
   <si>
-    <t>allrows,value^Automati</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -371,6 +347,21 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>Aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
   </si>
 </sst>
 </file>
@@ -944,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X173"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
+      <selection activeCell="G65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +949,7 @@
     <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="19"/>
     <col min="14" max="14" width="5.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.140625" customWidth="1"/>
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="26.5703125" customWidth="1"/>
     <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -1011,22 +1002,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
@@ -1044,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1094,7 +1085,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1114,17 +1105,19 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="15"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -1160,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1198,15 +1191,16 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="11"/>
@@ -1244,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1283,16 +1277,15 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="11"/>
@@ -1328,10 +1321,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1356,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -1372,18 +1365,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1409,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>19</v>
@@ -1423,17 +1416,16 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
-        <v>43</v>
+        <v>110</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -1453,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>19</v>
@@ -1468,16 +1460,16 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -1497,7 +1489,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>19</v>
@@ -1514,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1539,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>19</v>
@@ -1553,13 +1545,13 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1585,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>19</v>
@@ -1594,24 +1586,24 @@
         <v>21</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -1631,7 +1623,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>19</v>
@@ -1640,24 +1632,24 @@
         <v>21</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -1677,7 +1669,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>19</v>
@@ -1686,24 +1678,24 @@
         <v>21</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -1722,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>19</v>
@@ -1731,24 +1723,24 @@
         <v>21</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P17" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
@@ -1758,7 +1750,7 @@
       <c r="V17" s="33"/>
       <c r="W17" s="33"/>
       <c r="X17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1770,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>19</v>
@@ -1779,24 +1771,24 @@
         <v>21</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -1816,7 +1808,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>19</v>
@@ -1825,24 +1817,24 @@
         <v>21</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -1862,7 +1854,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>19</v>
@@ -1871,24 +1863,24 @@
         <v>21</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
@@ -1908,7 +1900,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>19</v>
@@ -1917,24 +1909,24 @@
         <v>21</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
@@ -1954,7 +1946,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>19</v>
@@ -1968,19 +1960,19 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
@@ -2000,7 +1992,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>19</v>
@@ -2017,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -2042,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>19</v>
@@ -2056,19 +2048,19 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
@@ -2088,7 +2080,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>19</v>
@@ -2102,19 +2094,19 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
@@ -2134,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>19</v>
@@ -2143,24 +2135,24 @@
         <v>21</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
@@ -2180,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>19</v>
@@ -2193,10 +2185,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="26"/>
       <c r="M27" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="36"/>
@@ -2208,7 +2200,7 @@
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
       <c r="X27" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2220,7 +2212,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>19</v>
@@ -2234,19 +2226,19 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
@@ -2266,7 +2258,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>19</v>
@@ -2280,19 +2272,19 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
@@ -2312,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>19</v>
@@ -2326,19 +2318,19 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="26" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
@@ -2358,7 +2350,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>19</v>
@@ -2372,19 +2364,19 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
@@ -2404,7 +2396,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>19</v>
@@ -2418,19 +2410,19 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
@@ -2442,15 +2434,15 @@
       <c r="X32" s="27"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>19</v>
@@ -2459,25 +2451,23 @@
         <v>21</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="26" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>78</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P33" s="15"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
@@ -2485,18 +2475,18 @@
       <c r="U33" s="14"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="27"/>
+      <c r="X33" s="11"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="23"/>
       <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>19</v>
@@ -2505,24 +2495,24 @@
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="26" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
@@ -2542,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>19</v>
@@ -2553,28 +2543,28 @@
       <c r="I35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="1" t="s">
-        <v>110</v>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="27"/>
@@ -2588,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>19</v>
@@ -2599,16 +2589,16 @@
       <c r="I36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="22" t="s">
-        <v>49</v>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>37</v>
@@ -2625,22 +2615,16 @@
       <c r="W36" s="9"/>
       <c r="X36" s="27"/>
     </row>
-    <row r="37" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>109</v>
-      </c>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>19</v>
@@ -2649,44 +2633,50 @@
         <v>21</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="10" t="s">
-        <v>86</v>
+      <c r="L37" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
+        <v>110</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
       <c r="X37" s="27"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="23"/>
+    <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
@@ -2695,33 +2685,33 @@
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="11"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="27"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
@@ -2732,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>19</v>
@@ -2745,20 +2735,20 @@
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
-        <v>79</v>
+      <c r="L39" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
@@ -2778,7 +2768,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>19</v>
@@ -2791,17 +2781,17 @@
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="26" t="s">
-        <v>89</v>
+      <c r="L40" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>76</v>
@@ -2824,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>19</v>
@@ -2838,19 +2828,19 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
@@ -2870,7 +2860,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>19</v>
@@ -2884,19 +2874,19 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="26" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
@@ -2907,7 +2897,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="23"/>
@@ -2916,7 +2906,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>19</v>
@@ -2925,24 +2915,24 @@
         <v>21</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="26" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
@@ -2953,7 +2943,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="23"/>
@@ -2962,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>19</v>
@@ -2971,24 +2961,24 @@
         <v>21</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="26" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
@@ -3008,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>19</v>
@@ -3021,26 +3011,26 @@
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="10" t="s">
-        <v>68</v>
+      <c r="L45" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="11"/>
@@ -3054,7 +3044,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>19</v>
@@ -3068,13 +3058,13 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>37</v>
@@ -3100,7 +3090,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>19</v>
@@ -3114,13 +3104,13 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>37</v>
@@ -3146,7 +3136,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>19</v>
@@ -3160,19 +3150,19 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
@@ -3192,7 +3182,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>19</v>
@@ -3206,19 +3196,19 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
@@ -3238,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>19</v>
@@ -3252,19 +3242,19 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
@@ -3284,7 +3274,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>19</v>
@@ -3293,24 +3283,24 @@
         <v>21</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
@@ -3330,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>19</v>
@@ -3339,24 +3329,24 @@
         <v>21</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -3376,7 +3366,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>19</v>
@@ -3390,19 +3380,19 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -3414,15 +3404,15 @@
       <c r="X53" s="11"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="23"/>
       <c r="E54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>19</v>
@@ -3435,20 +3425,20 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="10" t="s">
-        <v>68</v>
+      <c r="L54" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -3460,15 +3450,15 @@
       <c r="X54" s="11"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>19</v>
@@ -3481,14 +3471,14 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="1" t="s">
-        <v>110</v>
+      <c r="L55" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>37</v>
@@ -3514,7 +3504,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>19</v>
@@ -3527,26 +3517,26 @@
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="22" t="s">
-        <v>49</v>
+      <c r="L56" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="11"/>
@@ -3560,7 +3550,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>19</v>
@@ -3573,20 +3563,20 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="10" t="s">
-        <v>98</v>
+      <c r="L57" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
@@ -3606,7 +3596,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>19</v>
@@ -3615,30 +3605,28 @@
         <v>21</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="26" t="s">
-        <v>68</v>
+      <c r="L58" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="11"/>
@@ -3652,7 +3640,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>19</v>
@@ -3661,28 +3649,30 @@
         <v>21</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>93</v>
+      <c r="L59" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="11"/>
@@ -3696,7 +3686,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>19</v>
@@ -3709,20 +3699,20 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="10" t="s">
-        <v>93</v>
+      <c r="L60" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -3742,7 +3732,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>19</v>
@@ -3751,28 +3741,30 @@
         <v>21</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="11"/>
@@ -3786,7 +3778,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>19</v>
@@ -3800,19 +3792,19 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
@@ -3832,7 +3824,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>19</v>
@@ -3841,30 +3833,28 @@
         <v>21</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="10" t="s">
-        <v>68</v>
+      <c r="L63" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="11"/>
@@ -3878,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>19</v>
@@ -3887,31 +3877,33 @@
         <v>21</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O64" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="M64" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N64" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
+      <c r="P64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-      <c r="X64" s="11"/>
+      <c r="X64" s="27"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -3922,7 +3914,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>19</v>
@@ -3936,13 +3928,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>37</v>
@@ -3957,7 +3949,7 @@
       <c r="U65" s="11"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-      <c r="X65" s="11"/>
+      <c r="X65" s="27"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
@@ -3968,7 +3960,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>19</v>
@@ -3982,13 +3974,13 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>37</v>
@@ -4003,7 +3995,7 @@
       <c r="U66" s="11"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-      <c r="X66" s="11"/>
+      <c r="X66" s="27"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -4014,7 +4006,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>19</v>
@@ -4023,24 +4015,24 @@
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q67" s="14"/>
       <c r="R67" s="14"/>
@@ -4049,18 +4041,24 @@
       <c r="U67" s="14"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-      <c r="X67" s="11"/>
+      <c r="X67" s="27"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="23"/>
+      <c r="A68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D68" s="23"/>
       <c r="E68" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>19</v>
@@ -4069,24 +4067,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P68" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
@@ -4106,7 +4104,7 @@
         <v>19</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>19</v>
@@ -4120,25 +4118,25 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="27"/>
@@ -4152,7 +4150,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>19</v>
@@ -4163,28 +4161,27 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-      <c r="L70" s="1" t="s">
-        <v>110</v>
+      <c r="L70" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="27"/>
@@ -4198,7 +4195,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>19</v>
@@ -4211,29 +4208,29 @@
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="22" t="s">
-        <v>49</v>
+      <c r="L71" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
-      <c r="X71" s="27"/>
+      <c r="X71" s="11"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
@@ -4244,7 +4241,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>19</v>
@@ -4253,24 +4250,24 @@
         <v>21</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="10" t="s">
-        <v>102</v>
+      <c r="L72" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
@@ -4283,316 +4280,79 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E73" s="5" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
-      <c r="L73" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P73" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="27"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X73" s="11"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O74" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P74" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="27"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="11"/>
-      <c r="L75" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="P75" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="27"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="27"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O77" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P77" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="26"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="11"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="10"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
-      <c r="O79" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P79" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="W79" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="X79" s="11"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M80" s="11"/>
@@ -4945,30 +4705,6 @@
     <row r="167" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
-    </row>
-    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M168" s="11"/>
-      <c r="N168" s="11"/>
-    </row>
-    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
-    </row>
-    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-    </row>
-    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
-    </row>
-    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
-    </row>
-    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="4065" windowWidth="16755" windowHeight="4005"/>
+    <workbookView xWindow="3600" yWindow="4125" windowWidth="16755" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="SWIFTBankOperationCodeTypes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
-      <selection activeCell="G65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X73" sqref="Q73:X73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,29 +4306,51 @@
       <c r="I73" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
+      <c r="J73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="O73" s="11" t="s">
         <v>98</v>
       </c>
       <c r="P73" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
+      <c r="Q73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U73" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="V73" s="9" t="s">
         <v>98</v>
       </c>
       <c r="W73" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="X73" s="11"/>
+      <c r="X73" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M74" s="11"/>

--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X73" sqref="Q73:X73"/>
+    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,15 +1342,9 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -2662,15 +2656,9 @@
       <c r="X37" s="27"/>
     </row>
     <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
         <v>19</v>
@@ -4044,15 +4032,9 @@
       <c r="X67" s="27"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="23"/>
       <c r="E68" s="5" t="s">
         <v>19</v>

--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>allrows,value^ZXY,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>SWIFT Bank</t>
   </si>
 </sst>
 </file>
@@ -979,8 +985,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,8 +1092,12 @@
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1132,8 +1142,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>

--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -358,7 +358,7 @@
     <t>TS001</t>
   </si>
   <si>
-    <t>SWIFT Bank</t>
+    <t>SWIFT Bank Operation Code Types</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -993,7 +993,7 @@
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1005,7 +1005,7 @@
     <col min="12" max="12" width="43.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" style="1" bestFit="1" customWidth="1"/>

--- a/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SWIFTBankOperationCodeTypes.xlsx
@@ -985,8 +985,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>
@@ -1296,7 +1296,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>3</v>
